--- a/results/Homeopathy_excluded/mod3.antielite_salienceBYhealth.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod3.antielite_salienceBYhealth.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0725733324892594</v>
+        <v>0.0725727081754919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0232791314636465</v>
+        <v>0.0232790655568093</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.026947073229139</v>
+        <v>0.0269465780903989</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11819959174938</v>
+        <v>0.118198838260585</v>
       </c>
       <c r="G2" t="n">
-        <v>3.11752749893579</v>
+        <v>3.11750950648721</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00182374931994979</v>
+        <v>0.00182386064510722</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.000058815580878023</v>
+        <v>-0.0000584288924253377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.017728919396936</v>
+        <v>0.017728847984002</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0348068590836862</v>
+        <v>-0.0348063324284548</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0346892279219302</v>
+        <v>0.0346894746436041</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.00331749383937002</v>
+        <v>-0.00329569594584274</v>
       </c>
       <c r="H3" t="n">
-        <v>0.997353027740335</v>
+        <v>0.997370419847959</v>
       </c>
     </row>
   </sheetData>
